--- a/excel/PedidoPlantilla.xlsx
+++ b/excel/PedidoPlantilla.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ITEM</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>CODIGO</t>
-  </si>
-  <si>
-    <t>CAJA</t>
   </si>
 </sst>
 </file>
@@ -361,7 +358,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,34 +385,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>121121</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>444.97</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>121155</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>636.74</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
